--- a/src/main/java/com/dru/qa/registration/testdata/LRMRgistration.xlsx
+++ b/src/main/java/com/dru/qa/registration/testdata/LRMRgistration.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="usermanagement" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Honorific</t>
   </si>
@@ -63,13 +58,64 @@
   </si>
   <si>
     <t>fullTimeConsultant</t>
+  </si>
+  <si>
+    <t>EmployeeID</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>autom</t>
+  </si>
+  <si>
+    <t>ExperienceSummary</t>
+  </si>
+  <si>
+    <t>MBBS</t>
+  </si>
+  <si>
+    <t>Dru1233</t>
+  </si>
+  <si>
+    <t>Qualification</t>
+  </si>
+  <si>
+    <t>LicenseType</t>
+  </si>
+  <si>
+    <t>mci Number</t>
+  </si>
+  <si>
+    <t>LicenseNum</t>
+  </si>
+  <si>
+    <t>LIC1233</t>
+  </si>
+  <si>
+    <t>Consultations</t>
+  </si>
+  <si>
+    <t>FollowUps</t>
+  </si>
+  <si>
+    <t>SearchFilter</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>SearchRoles</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UnivLab </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,13 +159,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -181,7 +231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,7 +266,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,28 +443,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="5" max="5" width="19.77734375" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" customWidth="1"/>
     <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="13" max="14" width="13" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" customWidth="1"/>
+    <col min="17" max="17" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,8 +494,38 @@
       <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -458,6 +546,36 @@
       </c>
       <c r="G2" t="s">
         <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="4">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="4">
+        <v>30</v>
+      </c>
+      <c r="O2" s="5">
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -465,5 +583,6 @@
     <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>